--- a/modelos/docentes_temporarios.xlsx
+++ b/modelos/docentes_temporarios.xlsx
@@ -19,13 +19,7 @@
     <t>Matrícula UEFS</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
     <t>Data de inicio da atuação</t>
-  </si>
-  <si>
-    <t>Tipo de vínculo</t>
   </si>
   <si>
     <t>Observações</t>
@@ -47,14 +41,6 @@
     <t>Observações sobre o docente temporário</t>
   </si>
   <si>
-    <t xml:space="preserve">0 - Em Folha
-1 - Bolsista   </t>
-  </si>
-  <si>
-    <t>0 - Não
-1 - Sim</t>
-  </si>
-  <si>
     <t>Fonte</t>
   </si>
   <si>
@@ -62,6 +48,20 @@
   </si>
   <si>
     <t>Data do fim da atuação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - Em Folha
+2 - Bolsista   </t>
+  </si>
+  <si>
+    <t>Tipo do docente temporário</t>
+  </si>
+  <si>
+    <t>0 - Substituto
+1 - Visitante</t>
+  </si>
+  <si>
+    <t>Tipo do vinculo do docente visitante</t>
   </si>
 </sst>
 </file>
@@ -514,36 +514,36 @@
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="3" max="4" width="17.5703125" customWidth="1"/>
+    <col min="2" max="3" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="51.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5">
+    <row r="1" spans="1:7" ht="38.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -554,28 +554,28 @@
     </row>
     <row r="3" spans="1:7" ht="38.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>7</v>
+      <c r="C3" s="10"/>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
       </c>
-      <c r="D3" s="10"/>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -9552,7 +9552,7 @@
   <mergeCells count="3">
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
